--- a/src/assets/Template Excel/Layout_CT_Assy.xlsx
+++ b/src/assets/Template Excel/Layout_CT_Assy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Worktools SRI\Frontend\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B0DE27-70A3-4BF4-990A-1AB71085597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733DE4B8-4674-4B82-8CF7-92B6B3BC7D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DA0EC4C-990A-47CA-B09E-B24038995E24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6DA0EC4C-990A-47CA-B09E-B24038995E24}"/>
   </bookViews>
   <sheets>
     <sheet name="CT ASSY" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>SHIFT 1</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>HR/1000 PC</t>
+  </si>
+  <si>
+    <t>NOMOR</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -664,11 +667,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -678,71 +690,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -789,99 +742,164 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,38 +1215,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD7BE66-1810-4354-8075-D30DB62AA71C}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.90625" customWidth="1"/>
+    <col min="17" max="17" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1241,559 +1280,570 @@
         <v>6</v>
       </c>
       <c r="R1" s="4"/>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="40"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="21"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="E2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="F2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="J2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AB2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AC2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AD2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AF2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AG2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AH2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AI2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AJ2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AK2" s="54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="49" t="s">
+    <row r="3" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="M3" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="51">
+      <c r="N3" s="57">
         <v>1</v>
       </c>
-      <c r="N3" s="52">
+      <c r="O3" s="58">
         <v>2</v>
       </c>
-      <c r="O3" s="52">
+      <c r="P3" s="58">
         <v>3</v>
       </c>
-      <c r="P3" s="53">
+      <c r="Q3" s="59">
         <v>4</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="54" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="U3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="V3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="70"/>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="64"/>
+      <c r="X3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="Y3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Z3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="58" t="s">
+      <c r="AA3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="59" t="s">
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="60" t="s">
+      <c r="AE3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="60" t="s">
+      <c r="AF3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="61" t="s">
+      <c r="AG3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="19"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="74"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="Q2:Q3"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:AB1"/>
     <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1803,15 +1853,18 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
